--- a/data/excel/SalesChannelSetting_PreferredAirline.xlsx
+++ b/data/excel/SalesChannelSetting_PreferredAirline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kumar.gaurav\git\V12StagingB2C\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FC9A22-BC3B-4DF6-9F99-BFDFEA94EBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1E4E55-3234-4538-A0FD-5BA7001B93DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="25410" windowHeight="8895" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="20490" windowHeight="8850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="98">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -108,9 +108,6 @@
     <t>qlabs12345</t>
   </si>
   <si>
-    <t>Password@123</t>
-  </si>
-  <si>
     <t>in</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>Piyush_QL</t>
   </si>
   <si>
-    <t>Verify Preferred Airline for Selected Airport</t>
-  </si>
-  <si>
     <t>IndiGo</t>
   </si>
   <si>
@@ -192,9 +186,6 @@
     <t>TripEndDate</t>
   </si>
   <si>
-    <t>Test MO 1</t>
-  </si>
-  <si>
     <t>Emirates</t>
   </si>
   <si>
@@ -303,18 +294,6 @@
     <t xml:space="preserve">Verify Preferred Airline for Domestic with Airline Gulf Air from Selected city Delhi &amp; Bombay </t>
   </si>
   <si>
-    <t>//login.konnect.travel/backoffice</t>
-  </si>
-  <si>
-    <t>KN2503</t>
-  </si>
-  <si>
-    <t>Ankur</t>
-  </si>
-  <si>
-    <t>Ankur@12345</t>
-  </si>
-  <si>
     <t>Akasa Air</t>
   </si>
   <si>
@@ -334,6 +313,15 @@
   </si>
   <si>
     <t>akas</t>
+  </si>
+  <si>
+    <t>9@6C6535C</t>
+  </si>
+  <si>
+    <t>Ankur@123456</t>
+  </si>
+  <si>
+    <t>ankur_ql</t>
   </si>
 </sst>
 </file>
@@ -768,7 +756,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Y5"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,18 +845,18 @@
         <v>22</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>23</v>
@@ -880,72 +868,72 @@
         <v>25</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="H2" s="7">
         <v>1</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="T2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="X2" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Y2" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>23</v>
@@ -957,72 +945,72 @@
         <v>25</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="H3" s="7">
         <v>1</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q3" s="7" t="s">
+      <c r="S3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="W3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="X3" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Y3" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>23</v>
@@ -1034,72 +1022,72 @@
         <v>25</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="7" t="s">
+      <c r="U4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="V4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="W4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="W4" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="X4" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Y4" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>23</v>
@@ -1111,72 +1099,72 @@
         <v>25</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="14" t="s">
+      <c r="S5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="X5" s="13" t="s">
-        <v>60</v>
-      </c>
       <c r="Y5" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>23</v>
@@ -1188,72 +1176,72 @@
         <v>25</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="T6" s="7" t="s">
+      <c r="U6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="V6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="W6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="W6" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="X6" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Y6" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
@@ -1265,72 +1253,72 @@
         <v>25</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="14" t="s">
+      <c r="S7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="U7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="V7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="X7" s="13" t="s">
-        <v>60</v>
-      </c>
       <c r="Y7" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>23</v>
@@ -1342,72 +1330,72 @@
         <v>25</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="R8" s="7" t="s">
+      <c r="S8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="T8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="7" t="s">
+      <c r="V8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="V8" s="7" t="s">
+      <c r="W8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="X8" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Y8" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>23</v>
@@ -1419,72 +1407,72 @@
         <v>25</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="O9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="P9" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="S9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="T9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="7" t="s">
+      <c r="V9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="V9" s="7" t="s">
+      <c r="W9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="W9" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="X9" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Y9" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>23</v>
@@ -1496,72 +1484,72 @@
         <v>25</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="T10" s="7" t="s">
+      <c r="U10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="V10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="W10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="W10" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="X10" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Y10" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1573,72 +1561,72 @@
         <v>25</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="R11" s="7" t="s">
+      <c r="S11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="S11" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="T11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U11" s="7" t="s">
+      <c r="V11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="V11" s="7" t="s">
+      <c r="W11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="W11" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="X11" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Y11" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>23</v>
@@ -1650,72 +1638,72 @@
         <v>25</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="T12" s="7" t="s">
+      <c r="U12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U12" s="7" t="s">
+      <c r="V12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="7" t="s">
+      <c r="W12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="W12" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="X12" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Y12" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>23</v>
@@ -1727,64 +1715,64 @@
         <v>25</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13" s="14" t="s">
+      <c r="S13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="X13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="W13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="X13" s="13" t="s">
-        <v>60</v>
-      </c>
       <c r="Y13" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1802,8 +1790,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13" xr:uid="{5C50BE36-AABF-480A-AFB8-C79218F49A15}">
       <formula1>"//v12staging/backoffice/,//xchangev12/backoffice/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13" xr:uid="{BFEFF80B-B4C0-4360-8515-CD81C0225439}">
-      <formula1>"Password@123,Ankur@12345"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13" xr:uid="{767D172F-C232-49B3-8259-7FF784E0C00F}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1814,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FACCB92-1AA0-4B22-96D7-A17977359B8B}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,7 +1838,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
@@ -1898,18 +1886,18 @@
         <v>22</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>23</v>
@@ -1921,82 +1909,82 @@
         <v>25</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="J2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="7">
-        <v>1</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>57</v>
+      <c r="P2" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="R2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="T2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="X2" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Y2" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{50D57D49-1902-4EA7-8F25-20213B3EE6B9}">
-      <formula1>"Password@123,Ankur@12345"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{68DF8ABA-E996-4FC8-A404-0A73C588F236}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{6AFE173A-D42A-4FBE-A3A9-6CAA3031FFF9}">
       <formula1>"//v12staging/backoffice/,//xchangev12/backoffice/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{78164053-F7E4-499A-9D5E-66E283F6C1E7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{CF8BB7A1-37F2-4B1E-819F-1B4B0F9971DA}">
+      <formula1>"at,qlabs12345,merg123456"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 Q2" xr:uid="{801C0C21-87D7-4D7F-831A-C498B01A0855}">
+      <formula1>"Country,City,AirPort"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{B7AD7DA5-D74A-4950-B81A-3635B8616BAD}">
       <formula1>"Piyush_QL,ankur_ql"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{DDAE3723-B024-44BD-8208-02F3683CEA06}">
-      <formula1>"at,qlabs12345,merg123456"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 J2" xr:uid="{75C55B00-EE63-4512-95C3-520A02E9EA23}">
-      <formula1>"Country,City,AirPort"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{ED95AE33-526E-43CA-89DA-6222CBFF3AEA}">
+      <formula1>"Password@@12,Ankur@123456,9@6C6535C,Ankur@12345"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2008,7 +1996,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:W3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,10 +2077,10 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>23</v>
@@ -2104,66 +2092,66 @@
         <v>25</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="H2" s="7">
         <v>1</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>23</v>
@@ -2175,65 +2163,62 @@
         <v>25</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="H3" s="7">
         <v>1</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="T3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{BFEFF80B-B4C0-4360-8515-CD81C0225439}">
-      <formula1>"Password@123,Ankur@12345"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{5C50BE36-AABF-480A-AFB8-C79218F49A15}">
       <formula1>"//v12staging/backoffice/,//xchangev12/backoffice/"</formula1>
     </dataValidation>
@@ -2246,6 +2231,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3 Q2:Q3" xr:uid="{95190643-B160-4A73-89F4-80CBC89A02E0}">
       <formula1>"Country,City,AirPort"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{F3427F25-BE33-4A38-8047-5099B45C9E9F}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2255,8 +2243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31331316-5B97-47A4-8704-BF7BDF1979B0}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2284,7 +2272,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
@@ -2332,336 +2320,336 @@
         <v>22</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="I2" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="X2" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Y2" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="I3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q3" s="7" t="s">
+      <c r="S3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="W3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="X3" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Y3" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="I4" s="11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="7" t="s">
+      <c r="U4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="V4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="W4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="W4" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="X4" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Y4" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="I5" s="14" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="14" t="s">
+      <c r="S5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="X5" s="13" t="s">
-        <v>60</v>
-      </c>
       <c r="Y5" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5" xr:uid="{CEDFB220-5E23-4E1D-A28E-D0856C6AA81F}">
-      <formula1>"//v12staging/backoffice/,//login.konnect.travel/backoffice"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5" xr:uid="{6559D953-2D41-4032-A39D-071DD7C10E9C}">
-      <formula1>"Piyush_QL,ankur_ql,Ankur"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5" xr:uid="{1C17F962-DDCD-4D8D-BBD2-F55EBEAB3EE0}">
-      <formula1>"at,qlabs12345,merg123456,KN2503"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5" xr:uid="{00484373-B355-42AD-BBAA-ECC924AE1C25}">
-      <formula1>"Password@123,Ankur@12345"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J5 Q2:Q5" xr:uid="{48BD7E06-21D9-4EEA-83B4-A08100671D06}">
       <formula1>"Country,City,AirPort"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5" xr:uid="{8BA1B23C-16CB-4B4F-904E-156B5819A2FB}">
+      <formula1>"//v12staging/backoffice/,//xchangev12/backoffice/"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5" xr:uid="{6D2FF0AE-9B1F-494A-8EDA-3BAEB1B34D2E}">
+      <formula1>"Piyush_QL,ankur_ql"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5" xr:uid="{80A7C151-1B3D-4B8A-9D48-2A5AC51D11A0}">
+      <formula1>"at,qlabs12345,merg123456"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5" xr:uid="{23C8F93D-7496-4E72-B22A-444F19904D49}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
